--- a/RESULT/bayes.xlsx
+++ b/RESULT/bayes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A04AC-D116-41EB-A1FC-605F11AB3835}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEF9F74-99A8-47BD-BAC9-5F57E743B827}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="626">
   <si>
     <t>tuned_walpha002_hs300_bayes</t>
   </si>
@@ -4426,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1691E267-DED0-40DC-A536-AD92B8DF2386}">
   <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4451,7 +4451,7 @@
     <col min="20" max="20" width="2.9140625" customWidth="1"/>
     <col min="21" max="21" width="3.58203125" customWidth="1"/>
     <col min="22" max="22" width="2.4140625" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -6488,45 +6488,6 @@
       <c r="M52">
         <v>0.40713252032048902</v>
       </c>
-      <c r="O52" t="s">
-        <v>440</v>
-      </c>
-      <c r="P52" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>300</v>
-      </c>
-      <c r="R52" t="s">
-        <v>2</v>
-      </c>
-      <c r="S52" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52">
-        <v>20</v>
-      </c>
-      <c r="U52" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>-1.68213847909889E-3</v>
-      </c>
-      <c r="Y52">
-        <v>-0.76074309429842002</v>
-      </c>
-      <c r="Z52">
-        <v>-0.15060740257389099</v>
-      </c>
-      <c r="AA52">
-        <v>0.42836962134879603</v>
-      </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -6568,45 +6529,6 @@
       <c r="M53">
         <v>0.339848088687636</v>
       </c>
-      <c r="O53" t="s">
-        <v>289</v>
-      </c>
-      <c r="P53" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>300</v>
-      </c>
-      <c r="R53" t="s">
-        <v>2</v>
-      </c>
-      <c r="S53" t="s">
-        <v>3</v>
-      </c>
-      <c r="T53">
-        <v>20</v>
-      </c>
-      <c r="U53" t="s">
-        <v>4</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>-6.4939574743412398E-3</v>
-      </c>
-      <c r="Y53">
-        <v>-0.66205040461410303</v>
-      </c>
-      <c r="Z53">
-        <v>-0.100502669480728</v>
-      </c>
-      <c r="AA53">
-        <v>0.45223857392754302</v>
-      </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -7058,8 +6980,47 @@
       <c r="M64">
         <v>0.347718975403429</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O64" t="s">
+        <v>457</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>300</v>
+      </c>
+      <c r="R64" t="s">
+        <v>2</v>
+      </c>
+      <c r="S64" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-7.3380675141458598E-3</v>
+      </c>
+      <c r="Y64">
+        <v>-0.55836499909363102</v>
+      </c>
+      <c r="Z64">
+        <v>-0.116755644734804</v>
+      </c>
+      <c r="AA64">
+        <v>0.43458217368163699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -7099,8 +7060,47 @@
       <c r="M65">
         <v>0.33835896024426698</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O65" t="s">
+        <v>114</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>300</v>
+      </c>
+      <c r="R65" t="s">
+        <v>2</v>
+      </c>
+      <c r="S65" t="s">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s">
+        <v>4</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>8.3122468278599797E-4</v>
+      </c>
+      <c r="Y65">
+        <v>-0.51999371226418001</v>
+      </c>
+      <c r="Z65">
+        <v>-0.10998593781379699</v>
+      </c>
+      <c r="AA65">
+        <v>0.41756197964386199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -7140,8 +7140,47 @@
       <c r="M66">
         <v>0.329449398328786</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O66" t="s">
+        <v>425</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>300</v>
+      </c>
+      <c r="R66" t="s">
+        <v>2</v>
+      </c>
+      <c r="S66" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-4.3034232958457302E-4</v>
+      </c>
+      <c r="Y66">
+        <v>-9.2248137288604301E-2</v>
+      </c>
+      <c r="Z66">
+        <v>-1.6714780388325402E-2</v>
+      </c>
+      <c r="AA66">
+        <v>0.361536863969182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -7181,8 +7220,47 @@
       <c r="M67">
         <v>0.24672471891063799</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O67" t="s">
+        <v>528</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>300</v>
+      </c>
+      <c r="R67" t="s">
+        <v>2</v>
+      </c>
+      <c r="S67" t="s">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s">
+        <v>4</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>5.7651978418572104E-3</v>
+      </c>
+      <c r="Y67">
+        <v>-0.16522667704143501</v>
+      </c>
+      <c r="Z67">
+        <v>-3.15814494026984E-2</v>
+      </c>
+      <c r="AA67">
+        <v>0.33856269715898002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -7222,8 +7300,47 @@
       <c r="M68">
         <v>0.34735296808971</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O68" t="s">
+        <v>417</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>300</v>
+      </c>
+      <c r="R68" t="s">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s">
+        <v>4</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>4.9356050169132902E-3</v>
+      </c>
+      <c r="Y68">
+        <v>0.963699726756585</v>
+      </c>
+      <c r="Z68">
+        <v>0.15565652381734099</v>
+      </c>
+      <c r="AA68">
+        <v>0.24140498394631901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -7263,8 +7380,47 @@
       <c r="M69">
         <v>0.24743217402576001</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O69" t="s">
+        <v>427</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>300</v>
+      </c>
+      <c r="R69" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" t="s">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s">
+        <v>4</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-3.7054224248484801E-3</v>
+      </c>
+      <c r="Y69">
+        <v>-1.7331497061042599E-3</v>
+      </c>
+      <c r="Z69">
+        <v>-3.3990490585777901E-4</v>
+      </c>
+      <c r="AA69">
+        <v>0.29921870032429698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -7304,8 +7460,47 @@
       <c r="M70">
         <v>0.35168511160826699</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O70" t="s">
+        <v>424</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>300</v>
+      </c>
+      <c r="R70" t="s">
+        <v>2</v>
+      </c>
+      <c r="S70" t="s">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>3.5407141693359601E-3</v>
+      </c>
+      <c r="Y70">
+        <v>-2.6386992016040299E-2</v>
+      </c>
+      <c r="Z70">
+        <v>-5.1590090876582001E-3</v>
+      </c>
+      <c r="AA70">
+        <v>0.35035413849944502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -7345,8 +7540,47 @@
       <c r="M71">
         <v>0.24563945239608501</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O71" t="s">
+        <v>252</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>300</v>
+      </c>
+      <c r="R71" t="s">
+        <v>2</v>
+      </c>
+      <c r="S71" t="s">
+        <v>3</v>
+      </c>
+      <c r="T71">
+        <v>20</v>
+      </c>
+      <c r="U71" t="s">
+        <v>4</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1.48166794830174E-2</v>
+      </c>
+      <c r="Y71">
+        <v>-0.19720411885401501</v>
+      </c>
+      <c r="Z71">
+        <v>-4.1255266804273098E-2</v>
+      </c>
+      <c r="AA71">
+        <v>0.23843358522807101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -7386,8 +7620,47 @@
       <c r="M72">
         <v>0.25522342953948501</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O72" t="s">
+        <v>253</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>300</v>
+      </c>
+      <c r="R72" t="s">
+        <v>2</v>
+      </c>
+      <c r="S72" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>20</v>
+      </c>
+      <c r="U72" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>4.3503702926695597E-3</v>
+      </c>
+      <c r="Y72">
+        <v>0.53342259919102797</v>
+      </c>
+      <c r="Z72">
+        <v>9.30548515719333E-2</v>
+      </c>
+      <c r="AA72">
+        <v>0.19189282226029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -7428,7 +7701,7 @@
         <v>0.28842265814099</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -7469,7 +7742,7 @@
         <v>0.362216163633994</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -7510,7 +7783,7 @@
         <v>0.33101452104329898</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -7551,7 +7824,7 @@
         <v>0.30383096413553801</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -7592,7 +7865,7 @@
         <v>0.31954891716387701</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -7633,7 +7906,7 @@
         <v>0.34277785843599801</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -7805,8 +8078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFDDC8-75F6-4109-862E-A437FAC93AA1}">
   <dimension ref="A1:M608"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:M200"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
